--- a/biology/Botanique/Jardins_de_l'eau_du_Pré_Curieux/Jardins_de_l'eau_du_Pré_Curieux.xlsx
+++ b/biology/Botanique/Jardins_de_l'eau_du_Pré_Curieux/Jardins_de_l'eau_du_Pré_Curieux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27eau_du_Pr%C3%A9_Curieux</t>
+          <t>Jardins_de_l'eau_du_Pré_Curieux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de l'eau du Pré Curieux sont situés entre les communes d'Évian-les-Bains et de Publier. Ils font partie des sites touristiques dans le Chablais français en Haute-Savoie. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27eau_du_Pr%C3%A9_Curieux</t>
+          <t>Jardins_de_l'eau_du_Pré_Curieux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Terminé en 2002, le parc traite des rapports entre l'eau et les végétaux et cela sous différentes formes. Depuis les plantes que l'on appelle flottantes, telles que les nénuphars, jusqu'aux plantes de berges en passant par les prairies fraîches et humides. L'arrivée se fait uniquement depuis le lac (pour éviter le stationnement des véhicules dans le parc). 
 Le bateau solaire que l'on prend depuis les quais d'Évian-les-Bains nous amène à un ponton devant la maison. Débarqué sur la terrasse engazonnée, nous avons l'impression d'être accueilli chez le propriétaire de la maison. En effet, dans le jardin, ce sont des dimensions d'aménagement "domestiques", celles d'un jardin privé : les chemins, les terrasses, les escaliers, les plantes… La propriété a été abandonnée durant plusieurs dizaines d'années, mais a conservé les éléments caractéristiques des grandes propriétés du bord du lac Léman. 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27eau_du_Pr%C3%A9_Curieux</t>
+          <t>Jardins_de_l'eau_du_Pré_Curieux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Particularité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa situation entre la rive du Lac et une importante mais étroite route nationale, ne permet pas un accès « classique ».
 Pour visiter ce jardin, il faut emprunter un bateau mû par l'énergie solaire, qui fait la navette entre le jardin et le ponton qui se trouve en face du casino d'Évian.
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27eau_du_Pr%C3%A9_Curieux</t>
+          <t>Jardins_de_l'eau_du_Pré_Curieux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Site des Jardins de l'eau du Pré Curieux
  Portail du jardinage et de l’horticulture   Portail d’Évian-les-Bains                    </t>
